--- a/API Basic Training/API_BasicTraining - Arti_Vagheliya.xlsx
+++ b/API Basic Training/API_BasicTraining - Arti_Vagheliya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\RKIT\API Basic Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Arti-368\New folder\API Basic Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B498877F-68AA-4DA6-8CFA-75229F1E8C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84466498-9C35-4AA1-9070-91151F3A317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic 1 - API" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -440,6 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -452,7 +442,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,16 +727,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -773,7 +762,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -797,7 +786,7 @@
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
       <c r="F3" s="5"/>
@@ -814,7 +803,7 @@
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -829,7 +818,7 @@
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="5"/>
@@ -842,7 +831,7 @@
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
@@ -853,7 +842,7 @@
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>2</v>
       </c>
       <c r="F7" s="5"/>
@@ -866,7 +855,7 @@
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
@@ -877,7 +866,7 @@
       <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>2</v>
       </c>
       <c r="F9" s="5"/>
@@ -890,7 +879,7 @@
       <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
@@ -901,7 +890,7 @@
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
@@ -912,7 +901,7 @@
       <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="11">
         <v>2</v>
       </c>
       <c r="F12" s="5"/>
@@ -925,7 +914,7 @@
       <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
@@ -936,7 +925,7 @@
       <c r="D14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>2</v>
       </c>
       <c r="F14" s="5"/>
@@ -949,7 +938,7 @@
       <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
@@ -983,7 +972,7 @@
       <c r="A18" s="5"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="7">
@@ -1012,7 +1001,7 @@
       <c r="D20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="11">
         <v>2</v>
       </c>
       <c r="F20" s="5"/>
@@ -1025,7 +1014,7 @@
       <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
@@ -1046,7 +1035,7 @@
       <c r="A23" s="5"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="7">
@@ -1165,10 +1154,10 @@
       <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -1263,7 +1252,7 @@
       <c r="D41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="10"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
@@ -1274,7 +1263,7 @@
       <c r="D42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
@@ -1400,10 +1389,10 @@
       <c r="B54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="9"/>
+      <c r="D54" s="10"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -1554,10 +1543,10 @@
       <c r="B68" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="9"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
